--- a/data/trans_dic/P3A$otraNOcobra-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraNOcobra-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.01477011535083258</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.009909035586106014</v>
+        <v>0.009909035586106016</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01248677223071445</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007805474057356192</v>
+        <v>0.007391878318047792</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00435332002383877</v>
+        <v>0.004547134345701255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007613466197679705</v>
+        <v>0.007351657550779945</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.026324579135366</v>
+        <v>0.02598949513264137</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01860427930424106</v>
+        <v>0.02024913138114793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01880362587076086</v>
+        <v>0.01871871564292328</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009802857704714285</v>
+        <v>0.009309471792091378</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009118757747482938</v>
+        <v>0.009712517287578968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01153031472430166</v>
+        <v>0.01202465067513936</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03222845972860385</v>
+        <v>0.03226203465472222</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03018678092072277</v>
+        <v>0.03364843615498691</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02728944497285865</v>
+        <v>0.02812603485801344</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.02994236609556679</v>
+        <v>0.02994236609556678</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03749288520487797</v>
+        <v>0.03749288520487796</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.03208560363758663</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01744881675021747</v>
+        <v>0.01836450019897627</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01959007164739243</v>
+        <v>0.02070364616242419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0219912315559273</v>
+        <v>0.02185857951784558</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04506791123795293</v>
+        <v>0.0465611281519444</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06061163008659378</v>
+        <v>0.06178704496081</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04378476991325955</v>
+        <v>0.04480167622932828</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.0421368617324265</v>
+        <v>0.04213686173242649</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02069379598707248</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03287117640704811</v>
+        <v>0.03287117640704812</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03185135588553317</v>
+        <v>0.03188523398196664</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01468482846562567</v>
+        <v>0.01417379520120767</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02658028942484056</v>
+        <v>0.02676699455632018</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05277455643650581</v>
+        <v>0.05281301059550803</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02911626770311397</v>
+        <v>0.02817768470534063</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03982601538937812</v>
+        <v>0.0402590985152865</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02469189624182581</v>
+        <v>0.02393221946810217</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04982021257162239</v>
+        <v>0.0495608578983463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04297830893969606</v>
+        <v>0.04295641284213444</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05393844818384732</v>
+        <v>0.0543723434997405</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07495402819044282</v>
+        <v>0.07333393831672415</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06151775135525774</v>
+        <v>0.06050963070525479</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.02503544516313178</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.07798021218811046</v>
+        <v>0.07798021218811048</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.06636683595476357</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.00795366270434187</v>
+        <v>0.0090600512125582</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06388752409755907</v>
+        <v>0.0656930667909888</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05495832870953463</v>
+        <v>0.05460866245125686</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07234064632651453</v>
+        <v>0.07414220922574222</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09304782376763764</v>
+        <v>0.09302342798797227</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07936892389074426</v>
+        <v>0.08060448156876669</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02627062854648387</v>
+        <v>0.02572047067816229</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03765286449973378</v>
+        <v>0.03740832562505451</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03309048356204172</v>
+        <v>0.03331058993808592</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03655688531216685</v>
+        <v>0.03660570906934685</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0471898299546667</v>
+        <v>0.04760970975057667</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04027876735096465</v>
+        <v>0.04057197530652639</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4298</v>
+        <v>4070</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2123</v>
+        <v>2218</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7905</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14495</v>
+        <v>14310</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9074</v>
+        <v>9876</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19525</v>
+        <v>19437</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4732</v>
+        <v>4494</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3859</v>
+        <v>4110</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10445</v>
+        <v>10893</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15558</v>
+        <v>15574</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12773</v>
+        <v>14238</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24721</v>
+        <v>25479</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8229</v>
+        <v>8661</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3662</v>
+        <v>3870</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14482</v>
+        <v>14395</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21255</v>
+        <v>21959</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11330</v>
+        <v>11550</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28834</v>
+        <v>29504</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>36051</v>
+        <v>36089</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12647</v>
+        <v>12207</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>52976</v>
+        <v>53348</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>59733</v>
+        <v>59776</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25075</v>
+        <v>24267</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>79375</v>
+        <v>80239</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14024</v>
+        <v>13593</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>41393</v>
+        <v>41178</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>60119</v>
+        <v>60088</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30635</v>
+        <v>30882</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>62276</v>
+        <v>60930</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>86052</v>
+        <v>84642</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1887</v>
+        <v>2149</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>53939</v>
+        <v>55463</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>59438</v>
+        <v>59060</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17161</v>
+        <v>17589</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>78559</v>
+        <v>78538</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>85838</v>
+        <v>87174</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>90423</v>
+        <v>88530</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>136836</v>
+        <v>135947</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>234153</v>
+        <v>235710</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>125829</v>
+        <v>125997</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>171495</v>
+        <v>173021</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>285018</v>
+        <v>287093</v>
       </c>
     </row>
     <row r="32">
